--- a/FinalTest/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/FinalTest/testcase/OpenERP_TCs for automation training course.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="3"/>
@@ -16,7 +16,7 @@
     <sheet name="Skill management" sheetId="7" r:id="rId7"/>
     <sheet name="IMSM" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1088">
   <si>
     <t>Status Definition</t>
   </si>
@@ -11022,7 +11022,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="39">
     <font>
       <sz val="11"/>
@@ -11941,7 +11941,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11976,7 +11975,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12152,7 +12150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -12378,7 +12376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -13313,7 +13311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -14347,11 +14345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14693,7 +14691,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="105">
+    <row r="21" spans="1:8" ht="90">
       <c r="A21" s="14" t="s">
         <v>340</v>
       </c>
@@ -15236,11 +15234,6 @@
         <v>177</v>
       </c>
       <c r="H43" s="16"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="3" t="s">
-        <v>440</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15266,7 +15259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -15635,7 +15628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
@@ -15855,7 +15848,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="255">
+    <row r="16" spans="1:8" ht="270">
       <c r="A16" s="16" t="s">
         <v>595</v>
       </c>
@@ -15879,7 +15872,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="255">
+    <row r="17" spans="1:8" ht="270">
       <c r="A17" s="16" t="s">
         <v>596</v>
       </c>
@@ -16529,7 +16522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
@@ -17754,7 +17747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17978,7 +17971,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="300">
+    <row r="16" spans="1:8" ht="285">
       <c r="A16" s="14" t="s">
         <v>1049</v>
       </c>
